--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khoi\Downloads\Homework_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework_6\RobotShopGUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="627" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="174">
   <si>
     <t>Product Name:</t>
   </si>
@@ -468,9 +468,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>OnGoing</t>
-  </si>
-  <si>
     <t>Robot Shop</t>
   </si>
   <si>
@@ -546,7 +543,7 @@
     <t>Create GUI window</t>
   </si>
   <si>
-    <t>Ongoing</t>
+    <t>Create Robot Parts</t>
   </si>
 </sst>
 </file>
@@ -939,11 +936,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="389977440"/>
-        <c:axId val="393562344"/>
+        <c:axId val="151527568"/>
+        <c:axId val="151528352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="389977440"/>
+        <c:axId val="151527568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +977,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="393562344"/>
+        <c:crossAx val="151528352"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -988,7 +985,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393562344"/>
+        <c:axId val="151528352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1032,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="389977440"/>
+        <c:crossAx val="151527568"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1181,11 +1178,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="393564304"/>
-        <c:axId val="393558816"/>
+        <c:axId val="384624872"/>
+        <c:axId val="384625656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="393564304"/>
+        <c:axId val="384624872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,7 +1219,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="393558816"/>
+        <c:crossAx val="384625656"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1230,7 +1227,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393558816"/>
+        <c:axId val="384625656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1274,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="393564304"/>
+        <c:crossAx val="384624872"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1645,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1704,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1718,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1981,7 +1978,7 @@
         <v>13</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" ref="B22:B29" si="1">B24</f>
+        <f t="shared" ref="B25:B29" si="1">B24</f>
         <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2146,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -2202,6 +2199,9 @@
       </c>
       <c r="B36">
         <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -2938,10 +2938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3104,7 +3104,7 @@
         <v>140</v>
       </c>
       <c r="B12" s="32">
-        <f t="shared" ref="B7:B13" si="0">B11</f>
+        <f t="shared" ref="B12:B13" si="0">B11</f>
         <v>0</v>
       </c>
       <c r="C12" s="2"/>
@@ -3173,13 +3173,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" t="s">
         <v>152</v>
-      </c>
-      <c r="E16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" t="s">
-        <v>153</v>
       </c>
       <c r="G16" t="s">
         <v>147</v>
@@ -3193,13 +3193,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
         <v>147</v>
@@ -3213,13 +3213,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" t="s">
         <v>155</v>
-      </c>
-      <c r="E18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" t="s">
-        <v>156</v>
       </c>
       <c r="G18" t="s">
         <v>147</v>
@@ -3233,13 +3233,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
         <v>147</v>
@@ -3253,13 +3253,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
         <v>147</v>
@@ -3273,13 +3273,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G21" t="s">
         <v>147</v>
@@ -3293,13 +3293,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
         <v>147</v>
@@ -3313,13 +3313,13 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G23" t="s">
         <v>147</v>
@@ -3333,13 +3333,13 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" t="s">
         <v>162</v>
-      </c>
-      <c r="E24" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" t="s">
-        <v>163</v>
       </c>
       <c r="G24" t="s">
         <v>147</v>
@@ -3353,13 +3353,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" t="s">
         <v>147</v>
@@ -3373,13 +3373,13 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G26" t="s">
         <v>147</v>
@@ -3393,13 +3393,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G27" t="s">
         <v>147</v>
@@ -3413,13 +3413,13 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G28" t="s">
         <v>147</v>
@@ -3433,13 +3433,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G29" t="s">
         <v>147</v>
@@ -3453,13 +3453,13 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G30" t="s">
         <v>147</v>
@@ -3473,13 +3473,13 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G31" t="s">
         <v>147</v>
@@ -3493,13 +3493,13 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G32" t="s">
         <v>147</v>
@@ -3513,13 +3513,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G33" t="s">
         <v>147</v>
@@ -3533,16 +3533,36 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F34" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="B35" s="33">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" t="s">
         <v>173</v>
       </c>
-      <c r="G34" t="s">
-        <v>174</v>
+      <c r="G35" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="175">
   <si>
     <t>Product Name:</t>
   </si>
@@ -544,6 +544,9 @@
   </si>
   <si>
     <t>Create Robot Parts</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
   </si>
 </sst>
 </file>
@@ -936,11 +939,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="151527568"/>
-        <c:axId val="151528352"/>
+        <c:axId val="300201024"/>
+        <c:axId val="300201416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151527568"/>
+        <c:axId val="300201024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +980,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="151528352"/>
+        <c:crossAx val="300201416"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -985,7 +988,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151528352"/>
+        <c:axId val="300201416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1035,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="151527568"/>
+        <c:crossAx val="300201024"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1090,7 +1093,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1178,11 +1180,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="384624872"/>
-        <c:axId val="384625656"/>
+        <c:axId val="346127304"/>
+        <c:axId val="346130440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="384624872"/>
+        <c:axId val="346127304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,7 +1208,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1219,7 +1220,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="384625656"/>
+        <c:crossAx val="346130440"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1227,7 +1228,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384625656"/>
+        <c:axId val="346130440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1260,7 +1261,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1274,7 +1274,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="384624872"/>
+        <c:crossAx val="346127304"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2255,6 +2255,9 @@
       <c r="B38">
         <v>5</v>
       </c>
+      <c r="C38" t="s">
+        <v>147</v>
+      </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
@@ -2307,6 +2310,9 @@
       <c r="B40">
         <v>7</v>
       </c>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
@@ -2330,6 +2336,9 @@
       <c r="B41">
         <v>8</v>
       </c>
+      <c r="C41" s="13" t="s">
+        <v>174</v>
+      </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
@@ -2382,6 +2391,9 @@
       <c r="B43">
         <v>10</v>
       </c>
+      <c r="C43" t="s">
+        <v>147</v>
+      </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
@@ -2405,6 +2417,9 @@
       <c r="B44">
         <v>11</v>
       </c>
+      <c r="C44" t="s">
+        <v>147</v>
+      </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
@@ -2427,6 +2442,9 @@
       </c>
       <c r="B45">
         <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>147</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
